--- a/s2cDNASample/s2cDNASample_2651.xlsx
+++ b/s2cDNASample/s2cDNASample_2651.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004CD66D-1BDB-5242-865F-8C5A3D54BE6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA488F41-4E41-0D4B-8965-7648C03B37AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="17660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,10 +54,10 @@
     <t>E7420L</t>
   </si>
   <si>
-    <t>01.09.17</t>
+    <t>H.BROWN</t>
   </si>
   <si>
-    <t>H.BROWN</t>
+    <t>01.09.18</t>
   </si>
 </sst>
 </file>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B45 E2:E45"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" activeCellId="1" sqref="A25:A45 D24:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -487,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -510,7 +510,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -524,7 +524,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -533,7 +533,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -547,7 +547,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -556,7 +556,7 @@
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -570,7 +570,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -579,7 +579,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -593,7 +593,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -602,7 +602,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -616,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -625,7 +625,7 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -639,7 +639,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -648,7 +648,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>8</v>
@@ -662,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -671,7 +671,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -685,7 +685,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -694,7 +694,7 @@
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -708,7 +708,7 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -717,7 +717,7 @@
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -731,7 +731,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -740,7 +740,7 @@
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -754,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>13</v>
@@ -763,7 +763,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>13</v>
@@ -777,7 +777,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>14</v>
@@ -786,7 +786,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>14</v>
@@ -800,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>15</v>
@@ -809,7 +809,7 @@
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -823,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>16</v>
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>16</v>
@@ -846,7 +846,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>17</v>
@@ -855,7 +855,7 @@
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>17</v>
@@ -869,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>18</v>
@@ -878,7 +878,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>18</v>
@@ -892,7 +892,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -901,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>19</v>
@@ -915,7 +915,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>20</v>
@@ -924,7 +924,7 @@
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>20</v>
@@ -938,7 +938,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>21</v>
@@ -947,7 +947,7 @@
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -961,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>22</v>
@@ -970,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <v>22</v>
@@ -981,19 +981,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -1004,19 +1004,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F25">
         <v>24</v>
@@ -1027,19 +1027,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -1050,19 +1050,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>26</v>
@@ -1073,19 +1073,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <v>27</v>
@@ -1096,19 +1096,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>28</v>
@@ -1119,19 +1119,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F30">
         <v>29</v>
@@ -1142,19 +1142,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F31">
         <v>30</v>
@@ -1165,19 +1165,19 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F32">
         <v>31</v>
@@ -1188,19 +1188,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F33">
         <v>32</v>
@@ -1211,19 +1211,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F34">
         <v>33</v>
@@ -1234,19 +1234,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F35">
         <v>34</v>
@@ -1257,19 +1257,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36">
         <v>35</v>
@@ -1280,19 +1280,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37">
         <v>36</v>
@@ -1303,19 +1303,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F38">
         <v>37</v>
@@ -1326,19 +1326,19 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39">
         <v>38</v>
@@ -1349,19 +1349,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40">
         <v>39</v>
@@ -1372,19 +1372,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41">
         <v>40</v>
@@ -1395,19 +1395,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42">
         <v>41</v>
@@ -1418,19 +1418,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43">
         <v>42</v>
@@ -1441,19 +1441,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F44">
         <v>43</v>
@@ -1464,19 +1464,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45">
         <v>44</v>
